--- a/vehicle_data3.xlsx
+++ b/vehicle_data3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,120 +459,125 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Contact Number</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Registration Number</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Mileage</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Fuel Type</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Engine CC / kw</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Year of Manufacture</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Exterior Color</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Interior Color</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>No. of Owners</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Blue-T Grade</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>District</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Year of Reg.</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Convenience</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Infotainment</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Safety &amp; Security</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Interior &amp; Seats</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Windows &amp; Lighting</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Other Features</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Seller Notes</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Ad URL</t>
         </is>
@@ -604,31 +609,6 @@
           <t>0707 554 555</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
           <t>https://autostream.lk/author/buddikachathuranga329gmail-com/</t>
@@ -671,8 +651,6 @@
           <t>Rs. 3,290,000</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -743,12 +721,6 @@
           <t>1999</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
           <t>Seller NotesPower shutterPower steeringPower mirrorDual airbagAbsAndroid setupReverse camaraAlloy wheelAcRunning conditionBody conditionAccident free</t>
@@ -796,8 +768,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>SUV</t>
@@ -868,12 +838,6 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
           <t>Seller Notes8 airbagsService record availableSmart keyPower shatterPower SteeringPower mirrorRetractable mirrorAbsAcAndroid setupRevas camaraAllow wheelDual multifunctionCrush controlFull body kitRunning conditionBody conditionAccident free</t>
@@ -921,8 +885,6 @@
           <t>Rs. 6,590,000</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -1070,8 +1032,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -1142,12 +1102,6 @@
           <t>2010</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
           <t>Seller NotesDual airbagAbsAcAndroid setupRivas camaraPower shatterPower steeringPower mirrorRetractable mirrorRunning conditionBody conditionAccident free</t>
@@ -1195,8 +1149,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -1267,12 +1219,6 @@
           <t>2002</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
           <t>Seller NotesDual airbagAbsAcPower shatterPower steeringPower mirrorAllow wheelRunning conditionBody conditionAccident free</t>
@@ -1320,8 +1266,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -1392,12 +1336,6 @@
           <t>1998</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
           <t>Seller NotesAcAllow wheelRunning conditionBody conditionAccident free</t>
@@ -1445,8 +1383,6 @@
           <t>Rs. 3,690,000</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -1527,7 +1463,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
           <t>Fabric Interior, Headrests</t>
@@ -1590,8 +1525,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -1662,12 +1595,6 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringAcAllow wheelRunningBody conditionAccident free</t>
@@ -1715,8 +1642,6 @@
           <t>Rs. 2,790,000</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -1797,7 +1722,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
           <t>Headrests</t>
@@ -1860,8 +1784,6 @@
           <t>Rs. 4,190,000</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -1932,12 +1854,6 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringAcOriginal spiawheelBrand new tiresRunning conditionBody conditionAccident free</t>
@@ -1985,8 +1901,6 @@
           <t>Rs. 4,690,000</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -2057,12 +1971,6 @@
           <t>2011</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringPower mirrorAndroid setupRewas camaraOriginal allow wheelRunning conditionBody conditionAccident free</t>
@@ -2110,8 +2018,6 @@
           <t>Rs. 2,190,000</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -2192,7 +2098,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
           <t>Fabric Interior, Headrests</t>
@@ -2255,8 +2160,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -2327,12 +2230,6 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower SteeringPower mirrorRetractable mirrorDual airbagAbsAcAndroid setupRivas cameraAllow wheelBody conditionRunningAccident free</t>
@@ -2380,8 +2277,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>SUV</t>
@@ -2452,12 +2347,6 @@
           <t>2010</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringPower mirrorRetractable mirrorDual airbagDual multifunctionOriginal allow wheelAcBody conditionRunningAccident free</t>
@@ -2505,8 +2394,6 @@
           <t>Rs. 3,990,000</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -2577,12 +2464,6 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringAcRiwas camaraAllow wheelBrand new tiresRunning conditionBody conditionAccident free</t>
@@ -2630,8 +2511,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -2702,12 +2581,6 @@
           <t>2019</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
           <t>Seller NotesPower steeringPower shatterDual airbagAbsAcAndroid setupRivas cameraAllow wheelBrand new tires</t>
@@ -2755,8 +2628,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -2827,12 +2698,6 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
           <t>Seller NotesAcPower Steeringpower shatter bPower mirrorAllow wheelBrand New tiresSound sistamOriginal interiorRunning conditionBody conditionaccident free</t>
@@ -2880,8 +2745,6 @@
           <t>Rs. 7,390,000</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>MPV</t>
@@ -2952,12 +2815,6 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
           <t>Seller NotesFull operation4 way cameraRiwas camaraOriginal paintPush tartAuto door 2Dual multifunctionAllow wellBrand new tires</t>
@@ -3005,8 +2862,6 @@
           <t>Rs. 3,890,000</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -3087,7 +2942,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr">
         <is>
           <t>Fabric Interior, Headrests</t>
@@ -3150,8 +3004,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -3222,12 +3074,6 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
           <t>Seller NotesAcPower Steeringpower shatterPower mirrorAndroid setupRiwas camaraAllow wheelBrand New tiresSound sistamOriginal interiorRunning conditionBody conditionaccident free</t>
@@ -3275,8 +3121,6 @@
           <t>Rs. 6,890,000</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -3347,12 +3191,6 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
           <t>Seller NotesAcPower Steeringpower shatterPower mirrorAndroid setupRiwas camaraAllow wheelBrand New tiresSound sistamOriginal interiorRunning conditionBody conditionaccident free</t>
@@ -3400,8 +3238,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -3472,12 +3308,6 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
           <t>Seller NotesPower steeringPower shatterPower mirrorAllow wheelOriginal interiorAndroid setupRiwas camaraRunning conditionBody conditionAccident free</t>
@@ -3525,8 +3355,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -3597,12 +3425,6 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
           <t>Seller NotesSubbooferRiwas camaraAndroid setupPower shatterPower steeringAcOriginal spiawheelBrand new tiresRunning conditionBody conditionAccident free</t>
@@ -3650,8 +3472,6 @@
           <t>Rs. 3,290,000</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -3799,8 +3619,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -3871,12 +3689,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringAcAndroid setupRiwas camaraOriginal spiawheelBrand new tiresRunning conditionBody conditionAccident free</t>
@@ -3924,8 +3736,6 @@
           <t>Rs. 6,290,000</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
           <t>MPV</t>
@@ -3996,12 +3806,6 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
           <t>Seller NotesSafety packagePush tartSmart keyPower shatterPower steeringPower mirrorIdle stopAcAndroid setupMultifunctionRevas camaraAllow wheelBody conditionrunningAccident free</t>
@@ -4049,8 +3853,6 @@
           <t>Rs. 6,190,000</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -4126,7 +3928,6 @@
           <t>A/C</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
           <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
@@ -4194,8 +3995,6 @@
           <t>Rs. 3,390,000</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -4266,12 +4065,6 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
           <t>Seller NotesAbsPower shatterPower steeringPower mirrorAcOriginal allow wheel</t>
@@ -4319,8 +4112,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -4401,7 +4192,6 @@
           <t>Multi Function Steering, Andriod Auto</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
           <t>Fabric Interior, Headrests</t>
@@ -4464,8 +4254,6 @@
           <t>Rs. 9,490,000</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -4546,7 +4334,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
           <t>Fabric Interior, Headrests</t>
@@ -4609,8 +4396,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -4681,12 +4466,6 @@
           <t>2000</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
         <is>
           <t>Seller NotesPower shutterPower SteeringPower mirrorRetractable mirrorDual airbagAbsAcAndroid setupReverse camaraAlloy wheelBody conditionRunningAccident free</t>
@@ -4734,8 +4513,6 @@
           <t>Rs. 2,790,000</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -4806,12 +4583,6 @@
           <t>1996</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
           <t>Seller NotesPower SteeringAcAndroid setupAllow wheelBody conditionRunning conditionAccident free</t>
@@ -4859,8 +4630,6 @@
           <t>Rs. 2,290,000</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -4941,7 +4710,6 @@
           <t>Multi Function Steering, Andriod Auto</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
           <t>Fabric Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
@@ -5004,8 +4772,6 @@
           <t>Rs. 2,390,000</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -5076,12 +4842,6 @@
           <t>2010</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
           <t>Seller NotesAcBrand new tiresBody conditionRunning conditionAccident free</t>
@@ -5129,8 +4889,6 @@
           <t>Rs. 2,790,000</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -5211,7 +4969,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
         <is>
           <t>Leather Interior, Headrests</t>
@@ -5222,7 +4979,6 @@
           <t>Power Windows</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
           <t>Seller NotesEFI EngineBrand New Tires</t>
@@ -5270,8 +5026,6 @@
           <t>Rs. 3,790,000</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -5352,7 +5106,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
           <t>Fabric Interior, Headrests</t>
@@ -5415,8 +5168,6 @@
           <t>Rs. 6,790,000</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>Van</t>
@@ -5497,7 +5248,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
           <t>Fabric Interior, Headrests</t>
@@ -5560,8 +5310,6 @@
           <t>Rs. 2,990,000</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -5657,7 +5405,6 @@
           <t>Power Windows, Rear Wiper</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr">
         <is>
           <t>Seller Notespower shutterpower steeringpower mirrordual airbagabsrunning conditionaccident freeමූලික ගෙවීම ලක්ශ 5යිමාසෙකට රුපියල් පනස් හද්දහ ගානෙ ගෙවන් යන්නchthuranga car sales malabenear pittugala mahaneuna asapuwa228/4 new Kandy road pittugala malabe</t>
@@ -5705,8 +5452,6 @@
           <t>Rs. 3,750,000</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -5777,12 +5522,6 @@
           <t>2014</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringAcRiwas camaraAllow wheelBrand new tiresRunning conditionBody conditionAccident free</t>
@@ -5830,8 +5569,6 @@
           <t>Rs. 2,390,000</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -5902,12 +5639,6 @@
           <t>1991</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr">
         <is>
           <t>Seller NotesPower shutterPower steeringPower mirrorAcAllow wheelRunning conditionBody conditionAccident free</t>
@@ -5955,8 +5686,6 @@
           <t>Rs. 3,890,000</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -6027,12 +5756,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
           <t>Seller NotesPower shutterPower steeringPower mirrorRetractable mirrorDual airbagAbsAcBrand new tiresRunning conditionBody conditionAccident free</t>
@@ -6080,14 +5803,11 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -6148,12 +5868,6 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
           <t>Seller NotesCrooscuntrolDual multifunctionDual airbagAbsAndroid setupRevas camaraOriginal interiorRunning conditionBody conditionAccident free</t>
@@ -6201,8 +5915,6 @@
           <t>Rs. 2,190,000</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -6283,14 +5995,11 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
           <t>Leather Interior, Headrests</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
           <t>Seller NotesPower SteeringLeather seat setAcBody conditionRunningAccident freeChathuranga car sales malabeNear pittugala mahameuna asapuwa228/4 new Kandy road pittugala malabe</t>
@@ -6338,8 +6047,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -6410,12 +6117,6 @@
           <t>2011</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringPower mirrorAcAllow wheelBrand New tiresBody conditionRunning conditionAccident free</t>
@@ -6463,8 +6164,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -6535,12 +6234,6 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr">
         <is>
           <t>Seller NotesSafetyPush tartMultifunctionHedup displayOriginal allow wheelSpoilerDual airbagAbsPower steeringPower shatterPower mirrorRitrable mirrorWinger mirrorAcAndroid setupRivas camaraRunning conditionBody conditionAccident free</t>
@@ -6588,8 +6281,6 @@
           <t>Rs. 4,390,000</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -6670,7 +6361,6 @@
           <t>Multi Function Steering</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
           <t>Fabric Interior, Driver Armrest, Headrests</t>
@@ -6733,8 +6423,6 @@
           <t>Rs. 3,590,000</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -6805,12 +6493,6 @@
           <t>2017</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr">
         <is>
           <t>Seller NotesDual airbagAbsPower shatterPower steeringPower mirrorAcOriginal allow wheel</t>
@@ -6858,8 +6540,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -6955,7 +6635,6 @@
           <t>Power Windows, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr">
         <is>
           <t>Seller NotesPower SteeringPower shutterPower mirrorRetractable mirrorAcDual airbagAbsRunning conditionBody conditionAccident freeChathuranga car sales malabeNear pittugala mahameuna asapuwa22/4 new Kandy road pittugala malabe</t>
@@ -7003,8 +6682,6 @@
           <t>Rs. 3,790,000</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -7075,12 +6752,6 @@
           <t>2014</t>
         </is>
       </c>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringAcRunning conditionBody conditionAccident free</t>
@@ -7128,8 +6799,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -7200,12 +6869,6 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr">
         <is>
           <t>Seller NotesPush tartSmart keyPower shatterPower steeringPower mirrorRetractable mirrorWinger mirrorAirbagAbsDual multifunctionFog lapScoop lightAndroid setupRiwas camaraBrand New tiresAllow wheelRunning conditionBody conditionAccident free</t>
@@ -7253,8 +6916,6 @@
           <t>Rs. 6,990,000</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -7402,8 +7063,6 @@
           <t>Rs. 6,990,000</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -7474,12 +7133,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr">
         <is>
           <t>Seller NotesPower Steeringpower shutterPower mirrorRetractable mirrorWinger mirrorOriginal setupReverse camaraMultifunctionVoice commandoDual airbagAbsIdle stopbreakOriginal interiorBrand New tiresOriginal alloy wheelOriginal paintRunning conditionBody conditionAccident free</t>
@@ -7527,8 +7180,6 @@
           <t>Rs. 3,990,000</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -7599,12 +7250,6 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr">
         <is>
           <t>Seller NotesDual airbagAbsPower steeringPower shatterPower mirrorAcAndroid setupRivas camaraRunning conditionBody conditionAccident free</t>
@@ -7652,8 +7297,6 @@
           <t>Rs. 3,890,000</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -7724,12 +7367,6 @@
           <t>2014</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringAcBrand new tiresRunning conditionBody conditionAccident free</t>
@@ -7777,8 +7414,6 @@
           <t>Rs. 3,390,000</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -7849,12 +7484,6 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr">
         <is>
           <t>Seller NotesPower shutterPower steeringAcAlloy wheelRunning conditionBody conditionAccident free</t>
@@ -7902,8 +7531,6 @@
           <t>Rs. 6,590,000</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -8051,8 +7678,6 @@
           <t>Rs. 1,790,000</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -8128,14 +7753,11 @@
           <t>A/C</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr">
         <is>
           <t>Leather Interior, Headrests</t>
         </is>
       </c>
-      <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr">
         <is>
           <t>Rear Spoiler, Alloy wheels</t>
@@ -8188,8 +7810,6 @@
           <t>Negotiable</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -8260,12 +7880,6 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr">
         <is>
           <t>Seller NotesService History: Fully maintained at Toyota Lanka – MaharagamaLast Serviced: June 2025---Special GS Sport Edition Highlights:Factory GS Sport styling with sport-tuned suspensionGS bucket seats with brandingGS gear knob, floor mats, and interior accentsFull black interior – sporty and premium lookOriginal front row armrestFront seat heatersColor digital dashboard displayOriginal Alpine Japanese audio setupLow profile tires for enhanced handlingFactory-installed fog lights – stylish and functionalDaylight running LED beamBlack base adjustable headlightsPower mirrors (foldable &amp; adjustable)ECO / EV driving modesISOFIX child seat support – factory fittedAutomatic digital climate control A/C---Functional &amp; Safety Features:External HD dash cameraOriginal fog lights – improved nighttime visibilityOriginal puncture repair kit, jack &amp; red emergency flare3M tinted windows for UV/heat reduction---Recent Replacements (All with Warranty):Hybrid Battery – Replaced on 05/08/2024 (3-Year Warranty)12V Yuasa Battery – Replaced on 19/06/2025 (2-Year Warranty)2 New Low Profile Tyres – Replaced on 09/01/2025 (5-Year Warranty)ABS Unit – Replaced on 22/04/2024 (1-Year Warranty)---Fuel Efficiency:City Driving: 18-20 km/lLong Distance: 23–28 km/l---Rare GS Sport model with top-tier condition, documented history, and factory upgrades.First-owner, full Toyota Lanka maintenance, comfort, safety, and sporty hybrid performance in one reliable package.</t>
@@ -8313,8 +7927,6 @@
           <t>Rs. 3,890,000</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -8385,12 +7997,6 @@
           <t>2008</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringPower mirrorAndroid setupReverse CameraRunning conditionBody conditionAccident free</t>
@@ -8438,8 +8044,6 @@
           <t>Rs. 4,290,000</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -8510,12 +8114,6 @@
           <t>2010</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringPower mirrorAndroid setupAcAllow wheelReverse cameraRunning conditionBody conditionAccident free</t>
@@ -8563,8 +8161,6 @@
           <t>Rs. 4,790,000</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -8635,12 +8231,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr">
         <is>
           <t>Seller NotesPower shatterPower steeringPower mirrorRetractable mirrorBrand new tiresAllow wheelRunning conditionBody conditionAccident free</t>
@@ -8688,8 +8278,6 @@
           <t>Rs. 3,690,000</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -8760,12 +8348,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr">
         <is>
           <t>Seller NotesAcAirbagRunning conditionBodyAccident free</t>
@@ -8813,8 +8395,6 @@
           <t>Rs. 2,490,000</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -8885,12 +8465,6 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr">
         <is>
           <t>Seller NotesPower steeringPower shutterAcRunningBody conditionAccident free</t>
@@ -8899,6 +8473,5008 @@
       <c r="AE65" t="inlineStr">
         <is>
           <t>https://autostream.lk/listings/hyundai-accent-2000-6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Dawatage Car Sale</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>LocationRagama</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>shirleyfernando@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/author/shirleyfernandoyahoo-com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Dawatage Car Sale</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LocationRagama</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>shirleyfernando@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Nissan Caravan nv350 2012</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Van</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>227000</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>nv350</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Ragama</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>Touch Display</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Power Windows, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>Key Start</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/nissan-caravan-nv350-2012/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Dawatage Car Sale</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>LocationRagama</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>shirleyfernando@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Perodua Viva Elite 2011</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>145000</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Ragama</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>Touch Display</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests, Seat Back Pockets</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Power Windows, Tinted Glass</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/perodua-viva-elite-2011-4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Dawatage Car Sale</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LocationRagama</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>shirleyfernando@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Suzuki Every 2016</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>MPV</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>95000</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Ragama</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>A/C, Power Door Locks, Heater</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>Touch Display</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Rear Armrest, Headrests</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>Key Start</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-every-2016-3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Dawatage Car Sale</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LocationRagama</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>shirleyfernando@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Honda Vezel Orange Package 2015</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>97000</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Orange Package</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Ragama</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Touch Display, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/honda-vezel-orange-package-2015/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Dawatage Car Sale</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>LocationRagama</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>shirleyfernando@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Honda Fit 2015</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Ragama</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>Touch Display, Multi Function Steering</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Power Windows, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>Push Button Start</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/honda-fit-2015-6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Dawatage Car Sale</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>LocationRagama</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>shirleyfernando@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Toyota Axio 2015</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1500000</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Ragama</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>Touch Display, Multi Function Steering</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Power Windows</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>Push Button Start</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-axio-2015-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Dawatage Car Sale</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>LocationRagama</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>shirleyfernando@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Nissan Caravan 2008</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Van</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>218000</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Ragama</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>A/C, Heater</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>Rear Spoiler, Key Start</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/nissan-caravan-2008-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/author/dvithanageyahoo-com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Mercedes Benz E220 1994</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>A/C, Dual A/C</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Leather Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>Key Start, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>Seller NotesW211,Deisel,E 220,1994/2011,2nd owner,company maintenance
+Excellent condition</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/mercedes-benz-e220-1994/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Honda Fit Shuttle 2013</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>165000</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Light Blue</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Leather Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Power Windows, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>Seller NotesShuttle 2013,Navi premium,Intelligent key,165000km</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/honda-fit-shuttle-2013-4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Suzuki Spacia 2023</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Light Green</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>A/C, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>Seller NotesSpacia 2023.Hybrid G,LEDsafety package,4way cam,5000km</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-spacia-2023-18/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Suzuki Wagon R 2023</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Kadawatha</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>USB outlets, AM/FM Radio, Touch Display, Multi Function Steering, Speakers, Andriod Auto, Navigation</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Power Seats, Fabric Interior, Driver Armrest, Rear Armrest, Headrests</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Power Windows, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Parking Assistance, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>Seller NotesWagon R , FX S , Hybrid, 2023,</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-wagon-r-2023-17/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Suzuki Wagon R 2024</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Negombo</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>A/C, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-wagon-r-2024-40/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Daihatsu Mira 2024</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>Speakers</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Power Windows</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>Key Start</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>Seller NotesMira X grade. 2024, 1600km</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/daihatsu-mira-2024-17/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Nissan Sunny 2003</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>Power Windows</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>Seller NotesFB15,new shel,2003/2006 ,EX saloon</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/nissan-sunny-2003-4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Toyota Yaris 2023</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>Speakers</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Power Windows</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>Seller NotesToyota yaris x</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-yaris-2023-29/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Honda Grace 2014</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>98000</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>Seller NotesGrace 2014,EX pack,98000KM</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/honda-grace-2014-3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Suzuki Wagon R 2024</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Negombo</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>A/C, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-wagon-r-2024-41/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Toyota Hilux 2022</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>32000</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>A/C, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>Seller NotesGR sport, 2022, 32000km, Japan imported</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-hilux-2022-4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Toyota Raize 2025</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Pearl White</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>Speakers</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Rear Spoiler, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>Seller NotesRaize 2025 ,Z grade,Hybrid1200 cc ,0 KM,</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-raize-2025-15/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Toyota Raize 2022</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>Seller NotesRaize 2022.Z grade,patrol jeep</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-raize-2022-6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Nissan Sunny 2010</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rs. 6,000,000</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>160000</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Dark Gray</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Beige/Tan</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/nissan-sunny-2010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Daihatsu Mira 2024</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Homagama</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>Speakers</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Rear Wiper</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>Key Start</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>Seller NotesMira X grade,20242200km,</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/daihatsu-mira-2024-18/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Daihatsu TAFT 2024</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Kadawatha</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>USB outlets, AM/FM Radio, Touch Display, Multi Function Steering, Speakers, Andriod Auto, Navigation</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Power Seats, Fabric Interior, Driver Armrest, Rear Armrest, Headrests</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Parking Assistance, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>Seller NotesDaihatsu TAFT, G dark chrome venture, 2024.13 km,</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/daihatsu-taft-2024-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Toyota Raize 2023</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Driver Armrest, Headrests</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>Seller Notes2023 Raize.G grade,patrol 1000 cc.4500 KM,</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-raize-2023-10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Suzuki Every 2024</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>MPV</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>Key Start</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>Seller NotesEvery 2024,PA limited,power shutters,1200 KM</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-every-2024-15/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Suzuki Wagon R 2023</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Kadawatha</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>USB outlets, AM/FM Radio, Touch Display, Multi Function Steering, Speakers, Andriod Auto, Navigation</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Power Seats, Fabric Interior, Driver Armrest, Rear Armrest, Headrests</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Parking Assistance, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>Seller NotesWagon R , FX patrol, 2023,</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-wagon-r-2023-18/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Suzuki Wagon R 2025</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>Seller NotesWagon R , ZX UP grade version2025/7 , 0 KMReady to shipping</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-wagon-r-2025-7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Suzuki Wagon R 2018</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>A/C, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>AM/FM Radio</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>Key Start, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-wagon-r-2018-8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Toyota Premio 2010</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Ivory/White</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>A/C, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Speakers</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Leather Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>Power Windows, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>Seller NotesPremio 2010, G superior</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-premio-2010-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Toyota Vitz 2009</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>AM/FM Radio, Touch Display, Speakers</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Power Seats, Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>Key Start</t>
+        </is>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>Seller NotesVitz 2009 ,8Air bag,3rd owner,</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-vitz-2009/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Daihatsu Mira 2024</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Kadawatha</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>USB outlets, AM/FM Radio, Touch Display, Multi Function Steering, Speakers, Andriod Auto, Navigation</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Power Seats, Fabric Interior, Driver Armrest, Rear Armrest, Headrests</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Parking Assistance, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>Seller NotesDaihatsu Mira, X Limited, 2024,</t>
+        </is>
+      </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/daihatsu-mira-2024-3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Daihatsu TAFT 2025</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>A/C, Cruise Control</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>Speakers</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Auto Headlamps, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>Seller NotesTAFT 2025,G dark chrome venture,0KM,4 way cam</t>
+        </is>
+      </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/daihatsu-taft-2025-4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DARSHANA CAR SALE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Location188/A Kandy Rd, Yakkala 11870</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sales Hours</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>dvithanage@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Suzuki Wagon R 2025</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Yakkala</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>Speakers</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Knee</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>Seller NotesWagon R , ZX UP grade version,2025/7 , 0 KM, 2 units ,ready to shippingAvalaible for resevation</t>
+        </is>
+      </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-wagon-r-2025-6/</t>
         </is>
       </c>
     </row>

--- a/vehicle_data3.xlsx
+++ b/vehicle_data3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9533,32 +9533,6 @@
           <t>0707 554 555</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr">
         <is>
           <t>https://autostream.lk/author/dvithanageyahoo-com/</t>
@@ -9606,14 +9580,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>Sedan</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
           <t>Diesel</t>
@@ -9684,7 +9655,6 @@
           <t>AM/FM Radio, Multi Function Steering, Speakers</t>
         </is>
       </c>
-      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr">
         <is>
           <t>Leather Interior, Headrests</t>
@@ -9753,8 +9723,6 @@
           <t>Sold</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -9907,8 +9875,6 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -10061,14 +10027,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
           <t>Hybrid</t>
@@ -10211,14 +10174,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -10361,8 +10321,6 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -10448,7 +10406,6 @@
           <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
         </is>
       </c>
-      <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr">
         <is>
           <t>Power Windows</t>
@@ -10511,14 +10468,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>Sedan</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -10589,7 +10543,6 @@
           <t>AM/FM Radio, Speakers</t>
         </is>
       </c>
-      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr">
         <is>
           <t>Headrests</t>
@@ -10657,14 +10610,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -10807,8 +10757,6 @@
           <t>Sold</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -10961,14 +10909,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -11111,8 +11056,6 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>Pickup</t>
@@ -11265,14 +11208,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>SUV</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>Hybrid</t>
@@ -11415,14 +11355,11 @@
           <t>Sold</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>SUV</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -11565,8 +11502,6 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>Sedan</t>
@@ -11642,8 +11577,6 @@
           <t>A/C</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr">
         <is>
           <t>Fabric Interior, Headrests</t>
@@ -11654,7 +11587,6 @@
           <t>Fog Lights</t>
         </is>
       </c>
-      <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr">
         <is>
           <t>Seller NotesN/A</t>
@@ -11707,8 +11639,6 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -11794,7 +11724,6 @@
           <t>ABS, Airbag: Driver, Airbag: Front Passenger</t>
         </is>
       </c>
-      <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr">
         <is>
           <t>Rear Wiper</t>
@@ -11857,14 +11786,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -12007,8 +11933,6 @@
           <t>Sold</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>SUV</t>
@@ -12161,8 +12085,6 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>MPV</t>
@@ -12315,14 +12237,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
           <t>Hybrid</t>
@@ -12465,14 +12384,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -12615,14 +12531,11 @@
           <t>Sold</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -12765,14 +12678,11 @@
           <t>Sold</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>Sedan</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -12915,14 +12825,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -13065,14 +12972,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -13215,8 +13119,6 @@
           <t>Sold</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>Hatchback</t>
@@ -13369,14 +13271,11 @@
           <t>Available</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
           <t>Petrol</t>
@@ -13475,6 +13374,596 @@
       <c r="AF100" t="inlineStr">
         <is>
           <t>https://autostream.lk/listings/suzuki-wagon-r-2025-6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Achala Motors</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>LocationGampaha</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>achalamansara9@gmail.com</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/author/achalamansara9gmail-com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Achala Motors</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>LocationGampaha</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>achalamansara9@gmail.com</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Honda Fit 2012</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Gampaha City</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Headrests</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Tinted Glass, Rear Wiper</t>
+        </is>
+      </c>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/honda-fit-2012-13/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Achala Motors</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>LocationGampaha</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>achalamansara9@gmail.com</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Toyota Vitz 2010</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Dark Red</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Gampaha City</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Headrests, Seat Back Pockets</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>Power Windows, Tinted Glass, Rear Wiper</t>
+        </is>
+      </c>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-vitz-2010-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Achala Motors</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>LocationGampaha</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>achalamansara9@gmail.com</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Toyota Passo 2007</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Gampaha City</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>Tinted Glass</t>
+        </is>
+      </c>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-passo-2007/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Achala Motors</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>LocationGampaha</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>achalamansara9@gmail.com</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0707 554 555</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Honda Fit 2014</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Gampaha City</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>Touch Display, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>Headrests, Seat Back Pockets</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/honda-fit-2014-6/</t>
         </is>
       </c>
     </row>
